--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W20_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type2/pd_results_W20_H100_B32.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5403726708074534</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.1818181818181818</v>
-      </c>
+        <v>0.5495495495495496</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9508196721311475</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5285285285285285</v>
+        <v>0.5495495495495496</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6891089108910892</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5015015015015015</v>
+        <v>0.4984984984984985</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.08968836613529926</v>
+        <v>0.0755093383883471</v>
       </c>
       <c r="J2" t="n">
-        <v>1211.072632596521</v>
+        <v>975.5327044944652</v>
       </c>
       <c r="K2" t="n">
-        <v>2190336.408497463</v>
+        <v>1263243.963868327</v>
       </c>
       <c r="L2" t="n">
-        <v>1479.978516228348</v>
+        <v>1123.941263531296</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5927554131524939</v>
+        <v>0.7651277382974851</v>
       </c>
     </row>
   </sheetData>
